--- a/output/2017-7.xlsx
+++ b/output/2017-7.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="PI hours" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dept hours" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PI hours" sheetId="1" r:id="rId1"/>
+    <sheet name="dept hours" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -23,43 +23,46 @@
     <t>hours</t>
   </si>
   <si>
+    <t>percentage</t>
+  </si>
+  <si>
     <t>dept</t>
   </si>
   <si>
     <t>Seth Hutchinson</t>
   </si>
   <si>
+    <t>Paul G Kwiat</t>
+  </si>
+  <si>
+    <t>Naira Hovakimyan</t>
+  </si>
+  <si>
+    <t>Girish Chowdhary</t>
+  </si>
+  <si>
+    <t>Sayan Mitra</t>
+  </si>
+  <si>
+    <t>Dan Work</t>
+  </si>
+  <si>
+    <t>Romit Roy Choudhury</t>
+  </si>
+  <si>
     <t>['ECE', 'CSL']</t>
   </si>
   <si>
-    <t>Paul G Kwiat</t>
-  </si>
-  <si>
     <t>['PHYS', 'ECE']</t>
   </si>
   <si>
-    <t>Naira Hovakimyan</t>
-  </si>
-  <si>
     <t>['ME', 'AE', 'CSL']</t>
   </si>
   <si>
-    <t>Girish Chowdhary</t>
-  </si>
-  <si>
     <t>['ABE', 'CSL']</t>
   </si>
   <si>
-    <t>Sayan Mitra</t>
-  </si>
-  <si>
-    <t>Dan Work</t>
-  </si>
-  <si>
     <t>['CEE', 'CSL']</t>
-  </si>
-  <si>
-    <t>Romit Roy Choudhury</t>
   </si>
   <si>
     <t>CSL</t>
@@ -87,22 +90,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,26 +124,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -424,20 +440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,210 +457,252 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
+      <c r="D2">
+        <v>33.54430379746835</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>25.94936708860759</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>22.15189873417722</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>25.5</v>
+      </c>
+      <c r="D5">
+        <v>16.13924050632911</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D6">
+        <v>1.265822784810127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.6329113924050633</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.3164556962025317</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+      <c r="D2">
+        <v>33.33333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="D3">
+        <v>27.49287749287749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="D4">
+        <v>11.68091168091168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="D5">
+        <v>9.971509971509972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+      <c r="D6">
+        <v>9.971509971509972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="D7">
+        <v>7.264957264957265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0.2849002849002849</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/2017-7.xlsx
+++ b/output/2017-7.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="PI hours" sheetId="1" r:id="rId1"/>
-    <sheet name="dept hours" sheetId="2" r:id="rId2"/>
+    <sheet name="department hours" sheetId="2" r:id="rId2"/>
+    <sheet name="unit(accumulative) hours" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -29,6 +30,9 @@
     <t>dept</t>
   </si>
   <si>
+    <t>app</t>
+  </si>
+  <si>
     <t>Seth Hutchinson</t>
   </si>
   <si>
@@ -50,6 +54,21 @@
     <t>Romit Roy Choudhury</t>
   </si>
   <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <t>CEE</t>
+  </si>
+  <si>
     <t>['ECE', 'CSL']</t>
   </si>
   <si>
@@ -65,25 +84,13 @@
     <t>['CEE', 'CSL']</t>
   </si>
   <si>
+    <t>unit(accumulative)</t>
+  </si>
+  <si>
     <t>CSL</t>
   </si>
   <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>PHYS</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
     <t>AE</t>
-  </si>
-  <si>
-    <t>ABE</t>
-  </si>
-  <si>
-    <t>CEE</t>
   </si>
 </sst>
 </file>
@@ -441,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,13 +467,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>53</v>
@@ -475,15 +485,18 @@
         <v>33.54430379746835</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>41</v>
@@ -492,15 +505,18 @@
         <v>25.94936708860759</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -509,15 +525,18 @@
         <v>22.15189873417722</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>25.5</v>
@@ -526,15 +545,18 @@
         <v>16.13924050632911</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -543,15 +565,18 @@
         <v>1.265822784810127</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -560,15 +585,18 @@
         <v>0.6329113924050633</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -577,7 +605,10 @@
         <v>0.3164556962025317</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -586,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>55.5</v>
+      </c>
+      <c r="D2">
+        <v>35.12658227848101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>25.94936708860759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>22.15189873417722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>25.5</v>
+      </c>
+      <c r="D5">
+        <v>16.13924050632911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.6329113924050633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -595,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -609,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>117</v>
@@ -623,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>96.5</v>
@@ -637,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>41</v>
@@ -651,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -665,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -679,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>25.5</v>
@@ -693,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>

--- a/output/2017-7.xlsx
+++ b/output/2017-7.xlsx
@@ -10,13 +10,14 @@
     <sheet name="PI hours" sheetId="1" r:id="rId1"/>
     <sheet name="department hours" sheetId="2" r:id="rId2"/>
     <sheet name="unit(accumulative) hours" sheetId="3" r:id="rId3"/>
+    <sheet name="cfop hours" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -33,6 +34,9 @@
     <t>app</t>
   </si>
   <si>
+    <t>cfop</t>
+  </si>
+  <si>
     <t>Seth Hutchinson</t>
   </si>
   <si>
@@ -84,6 +88,27 @@
     <t>['CEE', 'CSL']</t>
   </si>
   <si>
+    <t>['cfop_HUTCHINSON']</t>
+  </si>
+  <si>
+    <t>['cfop_KWIAT']</t>
+  </si>
+  <si>
+    <t>['cfop_NH']</t>
+  </si>
+  <si>
+    <t>['cfop_GC']</t>
+  </si>
+  <si>
+    <t>['cfop_MITRA']</t>
+  </si>
+  <si>
+    <t>['cfop_WORK']</t>
+  </si>
+  <si>
+    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+  </si>
+  <si>
     <t>unit(accumulative)</t>
   </si>
   <si>
@@ -91,6 +116,30 @@
   </si>
   <si>
     <t>AE</t>
+  </si>
+  <si>
+    <t>cfop_HUTCHINSON</t>
+  </si>
+  <si>
+    <t>cfop_GC</t>
+  </si>
+  <si>
+    <t>cfop_KWIAT</t>
+  </si>
+  <si>
+    <t>cfop_NH</t>
+  </si>
+  <si>
+    <t>cfop_MITRA</t>
+  </si>
+  <si>
+    <t>cfop_RRC</t>
+  </si>
+  <si>
+    <t>cfop_WORK</t>
+  </si>
+  <si>
+    <t>cfop_CHOUDHURY</t>
   </si>
 </sst>
 </file>
@@ -448,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,13 +519,16 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>53</v>
@@ -485,18 +537,21 @@
         <v>33.54430379746835</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>41</v>
@@ -505,18 +560,21 @@
         <v>25.94936708860759</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -525,18 +583,21 @@
         <v>22.15189873417722</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>25.5</v>
@@ -545,18 +606,21 @@
         <v>16.13924050632911</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -565,18 +629,21 @@
         <v>1.265822784810127</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -585,18 +652,21 @@
         <v>0.6329113924050633</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -605,10 +675,13 @@
         <v>0.3164556962025317</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>55.5</v>
@@ -654,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>41</v>
@@ -668,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -682,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>25.5</v>
@@ -696,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -720,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -734,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>117</v>
@@ -748,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>96.5</v>
@@ -762,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>41</v>
@@ -776,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -790,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -804,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>25.5</v>
@@ -818,13 +891,149 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
         <v>0.2849002849002849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>106</v>
+      </c>
+      <c r="D2">
+        <v>44.258872651357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>21.29436325678497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>17.11899791231733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>14.61377870563674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1.670146137787056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.4175365344467641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.4175365344467641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.208768267223382</v>
       </c>
     </row>
   </sheetData>

--- a/output/2017-7.xlsx
+++ b/output/2017-7.xlsx
@@ -106,7 +106,7 @@
     <t>['cfop_WORK']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>unit(accumulative)</t>

--- a/output/2017-7.xlsx
+++ b/output/2017-7.xlsx
@@ -106,7 +106,7 @@
     <t>['cfop_WORK']</t>
   </si>
   <si>
-    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
+    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
   </si>
   <si>
     <t>unit(accumulative)</t>
